--- a/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/functional_composition_of_core_genes.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/functional_composition_of_core_genes.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.129943502824859</v>
+        <v>1.12781954887218</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.694915254237288</v>
+        <v>1.691729323308271</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.097928436911488</v>
+        <v>8.082706766917292</v>
       </c>
       <c r="C4" t="n">
         <v>10.81081081081081</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.344632768361583</v>
+        <v>7.330827067669173</v>
       </c>
       <c r="C5" t="n">
         <v>10.81081081081081</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1883239171374765</v>
+        <v>0.1879699248120301</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.071563088512241</v>
+        <v>2.067669172932331</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.883239171374765</v>
+        <v>1.879699248120301</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9416195856873822</v>
+        <v>0.9398496240601504</v>
       </c>
       <c r="C9" t="n">
         <v>1.351351351351351</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.0075329566855</v>
+        <v>15.97744360902256</v>
       </c>
       <c r="C10" t="n">
         <v>6.756756756756757</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7532956685499058</v>
+        <v>0.7518796992481203</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5649717514124294</v>
+        <v>0.5639097744360901</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9416195856873822</v>
+        <v>0.9398496240601504</v>
       </c>
       <c r="C13" t="n">
         <v>1.351351351351351</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.766478342749529</v>
+        <v>3.759398496240602</v>
       </c>
       <c r="C14" t="n">
         <v>4.054054054054054</v>
@@ -631,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.883239171374764</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C2" t="n">
-        <v>1.351351351351351</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="3">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7532956685499058</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="4">
@@ -689,46 +689,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.578154425612053</v>
+        <v>2.905982905982906</v>
       </c>
       <c r="C4" t="n">
-        <v>2.702702702702703</v>
+        <v>10.16949152542373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="C5" t="n">
-        <v>4.054054054054054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9416195856873822</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.351351351351351</v>
+        <v>2.542372881355933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.318267419962335</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -737,11 +737,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.318267419962335</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -750,11 +750,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.318267419962335</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -763,11 +763,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -776,11 +776,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.2015065913371</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -789,11 +789,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.259887005649718</v>
+        <v>3.247863247863248</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -802,141 +802,141 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3766478342749529</v>
+        <v>17.09401709401709</v>
       </c>
       <c r="C13" t="n">
-        <v>10.81081081081081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3766478342749529</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.318267419962335</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6.779661016949152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="C16" t="n">
-        <v>4.054054054054054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3766478342749529</v>
+        <v>1.196581196581197</v>
       </c>
       <c r="C17" t="n">
-        <v>1.351351351351351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.954802259887006</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8.108108108108109</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.448210922787194</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C19" t="n">
-        <v>4.054054054054054</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.259887005649718</v>
+        <v>3.247863247863248</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.23728813559322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5649717514124294</v>
+        <v>2.051282051282051</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1883239171374765</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C22" t="n">
-        <v>2.702702702702703</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9416195856873822</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -945,24 +945,24 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.506591337099812</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.351351351351351</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9416195856873822</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -971,11 +971,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.694915254237288</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -984,115 +984,115 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="C27" t="n">
-        <v>5.405405405405405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5649717514124294</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.54613935969868</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="C29" t="n">
-        <v>5.405405405405405</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.88034188034188</v>
       </c>
       <c r="C30" t="n">
-        <v>2.702702702702703</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.694915254237288</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.129943502824859</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="C32" t="n">
-        <v>1.351351351351351</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.694915254237288</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="C33" t="n">
-        <v>1.351351351351351</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.331450094161958</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.054054054054054</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.31261770244821</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1101,50 +1101,50 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.909604519774012</v>
+        <v>1.196581196581197</v>
       </c>
       <c r="C36" t="n">
-        <v>5.405405405405405</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.649717514124294</v>
+        <v>1.367521367521368</v>
       </c>
       <c r="C37" t="n">
-        <v>10.81081081081081</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.013182674199623</v>
+        <v>3.247863247863248</v>
       </c>
       <c r="C38" t="n">
-        <v>2.702702702702703</v>
+        <v>5.932203389830509</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.013182674199623</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1153,63 +1153,63 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.129943502824859</v>
+        <v>7.008547008547009</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>5.084745762711865</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.129943502824859</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="C41" t="n">
-        <v>4.054054054054054</v>
+        <v>7.627118644067797</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.931623931623931</v>
       </c>
       <c r="C42" t="n">
-        <v>1.351351351351351</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7532956685499058</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3766478342749529</v>
+        <v>1.70940170940171</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1218,76 +1218,76 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.63653483992467</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="C45" t="n">
-        <v>4.054054054054054</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.318267419962335</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.542372881355933</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="C47" t="n">
-        <v>4.054054054054054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16.0075329566855</v>
+        <v>1.70940170940171</v>
       </c>
       <c r="C48" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.071563088512241</v>
+        <v>2.393162393162394</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>4.23728813559322</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.318267419962335</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1296,27 +1296,79 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.694915254237288</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>5.405405405405405</v>
+        <v>4.23728813559322</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.179487179487179</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.474576271186439</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.393162393162394</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.196581196581197</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.847457627118644</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.051282051282051</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.389830508474576</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.351351351351351</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.23728813559322</v>
       </c>
     </row>
   </sheetData>
